--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Programming\VisualStudioProjects\TestConsoleApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9443D0A2-F208-4312-B52B-3F0304C103C9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44610215-3477-4B1D-8E27-48D6DB2E3FDF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{4B50857C-4597-44D5-90F4-DCE110F36CF7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" activeTab="1" xr2:uid="{4B50857C-4597-44D5-90F4-DCE110F36CF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table Form" sheetId="2" r:id="rId1"/>
+    <sheet name="List Form" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t xml:space="preserve">                              Key| &gt; &gt;1.00.00.00&lt;&gt;CS000               &lt;&gt;BULLETIN 001    &lt;&gt;0002&lt;&lt;</t>
   </si>
@@ -163,19 +164,109 @@
   </si>
   <si>
     <t xml:space="preserve">                    Cloud Elem ID| 214040</t>
+  </si>
+  <si>
+    <t>master data</t>
+  </si>
+  <si>
+    <t>|     |-Rev--|-----Order------|-Alt--|-Type-|--Disc--|--------Delta---------|--------Sheet---------|                    |--------Revision--------|              |              |                                                                                                                                                                                                 |</t>
+  </si>
+  <si>
+    <t>| -#- |--Id--|------Code------|--Id--|-Code-|--Code--|--------Title---------|--------Number--------|-----Visibility-----|------Block Title-------|-----Date-----|----Basis-----|-------------------------------------------------------------------------------------------Description-------------------------------------------------------------------------------------------|</t>
+  </si>
+  <si>
+    <t>|   0 |    1 |     1.00.00.00 |    1 | .00  | .00.00 | BULLETIN 001         | CS000                |       Hidden       | BULLETIN 001           |   01/01/2018 | pcc          | rev desc 1-cs000-000-1 this description has been made extra long in order to test what happens when a description is very long.  I've made this description into twosentences to test this also |</t>
+  </si>
+  <si>
+    <t>|   1 |    1 |     1.00.00.00 |    1 | .00  | .00.00 | BULLETIN 001         | CS000                |       Hidden       | BULLETIN 001           |   01/01/2018 | pcc          | rev desc 1-cs000-000-2                                                                                                                                                                          |</t>
+  </si>
+  <si>
+    <t>|   2 |    1 |     1.00.00.00 |    1 | .00  | .00.00 | BULLETIN 001         | CS000                |       Hidden       | BULLETIN 001           |   01/01/2018 | rfi          | rev desc 1-cs000-000-3                                                                                                                                                                          |</t>
+  </si>
+  <si>
+    <t>|   3 |    1 |     1.00.00.00 |    1 | .00  | .00.00 | BULLETIN 001         | CS100                |       Hidden       | BULLETIN 001           |   01/01/2018 | owner rev    | rev comment 1                                                                                                                                                                                   |</t>
+  </si>
+  <si>
+    <t>|   4 |      |     1.10.00.00 |    1 | .10  | .00.00 | ASI 007              | CS000                |     TagVisible     | ASI 007 (BULLETIN 001) |   01/07/2018 | owner rev    | rev desc 1-cs000-007-1                                                                                                                                                                          |</t>
+  </si>
+  <si>
+    <t>|   5 |      |     1.10.00.00 |    1 | .10  | .00.00 | ASI 007              | CS000                |     TagVisible     | ASI 007 (BULLETIN 001) |   01/07/2018 | pcc          | rev desc 1-cs000-007-2                                                                                                                                                                          |</t>
+  </si>
+  <si>
+    <t>|   6 |      |     1.10.00.00 |    1 | .10  | .00.00 | ASI 007              | CS000                |     TagVisible     | ASI 007 (BULLETIN 001) |   01/07/2018 | owner rev    | rev desc 1-cs000-007-1                                                                                                                                                                          |</t>
+  </si>
+  <si>
+    <t>|   7 |      |     1.10.00.00 |    1 | .10  | .00.00 | ASI 008              | CS000                | CloudAndTagVisible | ASI 008 (BULLETIN 001) |   01/08/2018 | owner rev    | desc 001-008-000                                                                                                                                                                                |</t>
+  </si>
+  <si>
+    <t>|   8 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1A A201              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | rfi          | rev desc 1A A201 -006-013-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|   9 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1A A201              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | pcc          | rev desc 1A A201 -006-013-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  10 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1A A202              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | rfi          | rev desc 1A A202 -006-013-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  11 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1A A202              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | owner rev    | rev desc 1A A202 -006-013-2                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  12 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1B A201              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | pcc          | rev desc 1B A201 -006-013-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  13 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | 1B A201              | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | owner rev    | rev desc 1B A201 -006-013-2                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  14 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | AA A2.20-201.10      | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | pcc          | Revision description ASI 013-01                                                                                                                                                                 |</t>
+  </si>
+  <si>
+    <t>|  15 |      |     6.10.07.00 |    6 | .10  | .07.00 | ASI 013              | AA A2.20-201.10      | CloudAndTagVisible | ASI 013 (BULLETIN 006) |   06/02/2018 | owner rev    | Revision description ASI 013-02                                                                                                                                                                 |</t>
+  </si>
+  <si>
+    <t>|  16 |      |     7.10.07.00 |    7 | .10  | .07.00 | ASI 107              | AA A2.20-201.10      | CloudAndTagVisible | RFI 107 (BULLETIN 007) |   07/02/2018 | owner change | Revision description RFI 107-01                                                                                                                                                                 |</t>
+  </si>
+  <si>
+    <t>|  17 |      |     7.10.07.00 |    7 | .10  | .07.00 | ASI 107              | AA A2.20-202.10      | CloudAndTagVisible | RFI 107 (BULLETIN 007) |   07/02/2018 | owner change | Revision description RFI 107-02                                                                                                                                                                 |</t>
+  </si>
+  <si>
+    <t>|  18 |    6 |     6.00.00.00 |    6 | .00  | .00.00 | BULLETIN 006         | CS000                | CloudAndTagVisible | BULLETIN 006           |   06/01/2018 | owner rev    | rev desc 1-cs000-006-xx1                                                                                                                                                                        |</t>
+  </si>
+  <si>
+    <t>|  19 |    7 |     7.00.00.00 |    7 | .00  | .00.00 | BULLETIN 007         | CS000                | CloudAndTagVisible | BULLETIN 007           |   07/01/2018 | owner rev    | rev desc 1-cs000-006-xx1                                                                                                                                                                        |</t>
+  </si>
+  <si>
+    <t>|  20 |      |     7.20.07.00 |    7 | .20  | .07.00 | RFI 701              | 1A A201              |     TagVisible     | RFI 701 (BULLETIN 007) |   07/03/2018 | owner rev    | rev desc 1A A201 -007-301-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  21 |      |     7.20.07.00 |    7 | .20  | .07.00 | RFI 701              | 1A A202              |     TagVisible     | RFI 701 (BULLETIN 007) |   07/03/2018 | pcc          | rev desc 1A A202 -007-301-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  22 |      |     7.20.07.00 |    7 | .20  | .07.00 | RFI 701              | 1A A202              |     TagVisible     | RFI 701 (BULLETIN 007) |   07/03/2018 | rfi          | rev desc 1A A202 -007-301-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  23 |      |     7.20.07.00 |    7 | .20  | .07.00 | RFI 701              | 1B A201              |     TagVisible     | RFI 701 (BULLETIN 007) |   07/03/2018 | rfi          | rev desc 1B A201 -007-301-1                                                                                                                                                                     |</t>
+  </si>
+  <si>
+    <t>|  24 |      |     7.20.07.00 |    7 | .20  | .07.00 | RFI 701              | AA A2.20-201.10      |     TagVisible     | RFI 701 (BULLETIN 007) |   07/03/2018 | rfi          | revision description RFI 701                                                                                                                                                                    |</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,8 +289,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +605,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4333C494-AD3F-4855-95C3-E79D65180242}">
+  <dimension ref="A1:A28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB886DAA-20B5-427C-A6EF-1B37EC639D01}">
   <dimension ref="A3:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L132" sqref="L132"/>
     </sheetView>
   </sheetViews>
@@ -1867,7 +2115,7 @@
         <v>209594</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" ref="I69:J132" si="7">CHAR(34)&amp;H69&amp;CHAR(34)&amp;","</f>
+        <f t="shared" ref="I69:I132" si="7">CHAR(34)&amp;H69&amp;CHAR(34)&amp;","</f>
         <v>"209594",</v>
       </c>
     </row>
